--- a/race_data.xlsx
+++ b/race_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucp13342\Documents\GitHub\DriesJarijch.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58A7B5-0949-4AF5-810E-1C7751403A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024C747-E9F9-42F6-AD00-E4BC3053FA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2205" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>races</t>
   </si>
@@ -66,38 +66,59 @@
     <t>Kabouters zijn mysterieuze magische wezentjes. De zijn nog kleiner dan dwergen, maar leven ontzettend lang (tot 1200 jaar). Ze hebben een speciale connectie met natuur en magie. Dus meestal zul je hun in een van die velden terugvinden.</t>
   </si>
   <si>
-    <t>Half-elven zijn wat hun naam impliceert: half elven, met de andere helft mens. Fysiek hebben ze meer weg van mensen, maar blijven herkenbaar aan hun punthoren. Ze worden aan hetzelfde tempo volwassen als mensen, maar behouden de levensduur van elven. Ze worden meestal een beetje meer als 'outcast' beschouwd, en je zal ze dus sneller terugvinden in de (metaforische) schaduwen.</t>
-  </si>
-  <si>
-    <t>Een half-orc is het resultaat van een mens en een orc die iets te veel plezier hebben gehad met elkaar. Denk kwa bouw eerder aan de hulk, maar dan net iets meer menselijk (en met slagtandjes). In een gevecht zijn ze niet neer te krijgen, dus is dat meestal waar ze zich op richten. Meestal worden ze echter niet zo oud vanwege hun afkomst als orc.</t>
-  </si>
-  <si>
-    <t>Door copyright is hun naam veranderd van hobbits naar halflings. Als je dus iets weet van hobbits, zal het je niet verbazen dat ze heel dapper zijn, graag mensen helpen en uitzonderlijk veel geluk hebben. Hun interesses gaan uit naar mensen helpen/entertainen of zelf op avontuur uit gaan.</t>
-  </si>
-  <si>
-    <t>Standaard mensen zoals je ze rondom je ziet. Ze zijn zeer flexibel en je komt ze zowat overal tegen. Ze zijn binnen DnD van nature zeer open-minded (soms iets te: zie half-elves, half-orcs en soms tieflings) en neigen dus van nature naar meer experimentele levensstijlen. Je talenten zijn betrouwbaar, maar iets minder flashy dan de rest.</t>
-  </si>
-  <si>
     <t>Tieflings zijn eigenlijk nakomelingen van humans die in contact zijn gekomen met sterke helse wezens (op een leuke of minderleuke manier). Ze zien er kwa bouw nog menselijk uit, maar hun hoorns geven onmiddelijk hun status weer. Ze worden door de meeste mensen niet onmiddelijk in vertrouwen genomen, en verkiezen daarom (meestal) om niet het centrum van de aandacht te zijn.</t>
+  </si>
+  <si>
+    <t>flavour</t>
+  </si>
+  <si>
+    <t>Dwarves are built strong. A lot shorter than humans, but harder to get down. Dwarves do live a lot longer than humans, usually reaching 350. The fact that they can take a beating means that they will often find themselves in the middle of all the action.</t>
+  </si>
+  <si>
+    <t>Elves are much leaner in build than humans, usually a bit taller and are mainly recognizable by their sharper face and pointy ears. They have a unique connection with nature and magic. So you will usually find them in one of those fields. Given their exceptionally long life (up to 750 years) they dedicate themselves to learning as many things as possible.</t>
+  </si>
+  <si>
+    <t>Gnomes are mysterious magical creatures. They are even smaller than dwarves, but live incredibly long (up to 1200 years). They have a special connection with nature and magic. So most of the time you will find them in one of those fields.</t>
+  </si>
+  <si>
+    <t>Een half-orc is het resultaat van een mens en een orc die iets te veel plezier hebben gehad met elkaar. Denk kwa bouw eerder aan de hulk, maar dan net iets meer menselijk (en met slagtandjes). Qua leeftijd komen ze overeen met mensen, maar worden ze iets sneller volwassen. In een gevecht zijn ze niet neer te krijgen, dus is dat meestal waar ze zich op richten. Meestal worden ze echter niet zo oud vanwege hun afkomst als orc.</t>
+  </si>
+  <si>
+    <t>Door copyright is hun naam veranderd van hobbits naar halflings. Als je dus iets weet van hobbits, zal het je niet verbazen dat ze heel dapper zijn, graag mensen helpen en uitzonderlijk veel geluk hebben. Ze verouderen aan ongeveer half het tempo van normale mensen. Hun interesses gaan uit naar mensen helpen/entertainen of zelf op avontuur uit gaan.</t>
+  </si>
+  <si>
+    <t>Half-elves are what their name implies: half elves, with the other half human. Physically, they are more human-like, but still recognizable by their pointy ears. They mature at the same rate as humans, but retain the lifespan of elves. They are generally considered a bit more of an 'outcast', and you will therefore find them more often in the (metaphorical) shadows.</t>
+  </si>
+  <si>
+    <t>Half-elven zijn wat hun naam impliceert: half elven, met de andere helft mens. Fysiek hebben ze meer weg van mensen, maar blijven herkenbaar aan hun puntoren. Ze worden aan hetzelfde tempo volwassen als mensen, maar behouden de levensduur van elven. Ze worden meestal een beetje meer als 'outcast' beschouwd, en je zal ze dus sneller terugvinden in de (metaforische) schaduwen.</t>
+  </si>
+  <si>
+    <t>A half-orc is the result of a human and an orc having a little too much fun together. Think of the hulk in terms of build, but a little more human (and with tusks). In terms of age, they are similar to humans, but they mature a little faster. They are invincible in a fight, so that is usually what they focus on. However, they usually do not live as long because of their orc origins.</t>
+  </si>
+  <si>
+    <t>Due to copyright, their name was changed from hobbits to halflings. So if you know anything about hobbits, you won't be surprised to learn that they are very brave, like to help people, and are exceptionally lucky. They age at about half the rate of normal humans. Their interests lie in helping/entertaining people or going on crazy adventures.</t>
+  </si>
+  <si>
+    <t>Standaard mensen zoals je ze rondom je ziet. Ze zijn zeer flexibel en je komt ze zowat overal tegen. Ze zijn binnen DnD van nature zeer open-minded (soms iets te: zie half-elves, half-orcs en soms tieflings) en neigen dus van nature naar meer experimentele levensstijlen. Hun talenten zijn betrouwbaar, maar iets minder flashy dan de rest.</t>
+  </si>
+  <si>
+    <t>Standard people as you see them around you. They are very flexible and you encounter them almost everywhere. They are naturally very open-minded within DnD (sometimes a bit too much: see half-elves, half-orcs and sometimes tieflings) and therefore naturally tend towards more experimental lifestyles. Their talents are reliable, but a bit less flashy than the rest.</t>
+  </si>
+  <si>
+    <t>Tieflings are actually descendants of humans who have come into contact with powerful hellish creatures (in a nice or not so nice way). They still look human in build, but their horns immediately give them away. They are not immediately trusted by most people, and therefore prefer (usually) not to be the center of attention.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,11 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -414,91 +432,113 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
